--- a/VesselCensus_PriorityFields_matchOfficial_Form.xlsx
+++ b/VesselCensus_PriorityFields_matchOfficial_Form.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0GDrive\Cambodia\FiADatabase\database\data\testSPSSVesselCensus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{699A1600-CF74-4F8E-BAAC-220153097AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62BC8995-7499-4046-A7B5-CA3A97B79EA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1" xr2:uid="{C55C3533-8D2C-4AE8-A8CF-8DBFB5ECB4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="PriorityFields" sheetId="1" r:id="rId1"/>
-    <sheet name="Developer" sheetId="2" r:id="rId2"/>
+    <sheet name="Field_Developer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="806">
   <si>
     <t>Include</t>
   </si>
@@ -2871,6 +2871,9 @@
   </si>
   <si>
     <t>Home Landing</t>
+  </si>
+  <si>
+    <t>metabase</t>
   </si>
 </sst>
 </file>
@@ -3220,13 +3223,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>286230</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>156690</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>39998</xdr:rowOff>
@@ -3287,7 +3290,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>349624</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>97971</xdr:rowOff>
@@ -3334,13 +3337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>346422</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>45464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>521682</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>167384</xdr:rowOff>
@@ -3401,7 +3404,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3448,13 +3451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>181855</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>138313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>509515</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>163030</xdr:rowOff>
@@ -3515,7 +3518,7 @@
       <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3562,13 +3565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>489481</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>152763</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>788</xdr:rowOff>
@@ -3629,7 +3632,7 @@
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>174173</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>315686</xdr:rowOff>
@@ -3676,13 +3679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>219891</xdr:colOff>
       <xdr:row>144</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>582065</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
@@ -3737,13 +3740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>610945</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>11653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>277905</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>53339</xdr:rowOff>
@@ -3804,7 +3807,7 @@
       <xdr:rowOff>9606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>227961</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
@@ -3857,7 +3860,7 @@
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>84527</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
@@ -9147,13 +9150,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA21788D-D218-4FAF-A65F-11AB38578138}">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9162,16 +9165,16 @@
     <col min="2" max="2" width="22.88671875" style="48" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="35" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="27.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="8" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>208</v>
       </c>
@@ -9196,17 +9199,20 @@
       <c r="H1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="K1" t="s">
         <v>636</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>637</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
@@ -9228,8 +9234,9 @@
       <c r="H2" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -9255,7 +9262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>9</v>
       </c>
@@ -9281,7 +9288,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
@@ -9306,28 +9313,29 @@
       <c r="H5" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" s="5"/>
+      <c r="L5" t="s">
         <v>655</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="47"/>
       <c r="C6" s="30" t="s">
         <v>554</v>
       </c>
       <c r="D6" s="35"/>
       <c r="F6" s="2"/>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>656</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>10</v>
       </c>
@@ -9352,8 +9360,9 @@
       <c r="H7" s="6" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
         <v>212</v>
       </c>
@@ -9375,11 +9384,12 @@
       <c r="H8" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="6"/>
+      <c r="L8" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>213</v>
       </c>
@@ -9401,17 +9411,18 @@
       <c r="H9" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>662</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
         <v>214</v>
       </c>
@@ -9433,17 +9444,18 @@
       <c r="H10" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="6"/>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>660</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="47"/>
       <c r="C11" s="30" t="s">
         <v>554</v>
@@ -9463,17 +9475,18 @@
       <c r="H11" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="21"/>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>665</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
         <v>215</v>
       </c>
@@ -9496,7 +9509,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>22</v>
       </c>
@@ -9522,7 +9535,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="49" t="s">
         <v>239</v>
       </c>
@@ -9539,7 +9552,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>13</v>
       </c>
@@ -9564,8 +9577,9 @@
       <c r="H16" s="9" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="49"/>
       <c r="C17" s="36" t="s">
@@ -9586,8 +9600,9 @@
       <c r="H17" s="9" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="49"/>
       <c r="C18" s="36" t="s">
@@ -9608,8 +9623,9 @@
       <c r="H18" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
       <c r="B19" s="49"/>
       <c r="C19" s="36" t="s">
@@ -9632,14 +9648,15 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
       <c r="B20" s="49"/>
       <c r="C20" s="36" t="s">
@@ -9660,14 +9677,15 @@
       <c r="H20" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="9"/>
+      <c r="L20" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
       <c r="B21" s="49"/>
       <c r="C21" s="36" t="s">
@@ -9688,8 +9706,9 @@
       <c r="H21" s="9" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
       <c r="B22" s="49"/>
       <c r="C22" s="36" t="s">
@@ -9710,14 +9729,15 @@
       <c r="H22" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="K22" t="s">
+      <c r="I22" s="9"/>
+      <c r="L22" t="s">
         <v>760</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
       <c r="B23" s="49"/>
       <c r="C23" s="36" t="s">
@@ -9738,14 +9758,15 @@
       <c r="H23" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="K23" t="s">
+      <c r="I23" s="9"/>
+      <c r="L23" t="s">
         <v>219</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
       <c r="B24" s="49"/>
       <c r="C24" s="36" t="s">
@@ -9766,8 +9787,9 @@
       <c r="H24" s="9" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="49"/>
       <c r="C25" s="36" t="s">
@@ -9788,8 +9810,9 @@
       <c r="H25" s="21" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
       <c r="B26" s="49"/>
       <c r="C26" s="36" t="s">
@@ -9810,8 +9833,9 @@
       <c r="H26" s="9" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="49"/>
       <c r="C27" s="36" t="s">
@@ -9832,8 +9856,9 @@
       <c r="H27" s="9" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="51"/>
       <c r="B28" s="49"/>
       <c r="C28" s="36" t="s">
@@ -9854,8 +9879,9 @@
       <c r="H28" s="9" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="51"/>
       <c r="B29" s="49"/>
       <c r="C29" s="7"/>
@@ -9864,8 +9890,9 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>15</v>
       </c>
@@ -9888,12 +9915,12 @@
       <c r="H30" t="s">
         <v>598</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" ref="I30:I33" si="0">CONCATENATE(G30," ",H30)</f>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J33" si="0">CONCATENATE(G30," ",H30)</f>
         <v>ឈ្មោះទូកនេសាទ Name of vessel</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>17</v>
       </c>
@@ -9918,12 +9945,12 @@
       <c r="H31" t="s">
         <v>229</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>កម្លាំងទូកនេសាទ (កម្លាំងសេះ) Power of vessel (HP)</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>19</v>
       </c>
@@ -9948,12 +9975,12 @@
       <c r="H32" t="s">
         <v>232</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>លេខទូកចុះបញ្ជី Vessel registration No.</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>20</v>
       </c>
@@ -9978,12 +10005,12 @@
       <c r="H33" t="s">
         <v>235</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>ថ្ងៃខែឆ្នាំចុះពញ្ជីទូគនេសាទ Date of vessel registration</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>24</v>
       </c>
@@ -10006,12 +10033,12 @@
       <c r="H34" t="s">
         <v>242</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>CONCATENATE(G34," ",H34)</f>
         <v>ថ្ងៃខែឆ្នាំជំរឿន Date of Vessel Census</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>26</v>
       </c>
@@ -10036,12 +10063,12 @@
       <c r="H35" t="s">
         <v>245</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" ref="I35:I55" si="1">CONCATENATE(G35," ",H35)</f>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:J55" si="1">CONCATENATE(G35," ",H35)</f>
         <v>ប្រភេទទូកនេសាទ Type of fishing vessel</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>28</v>
       </c>
@@ -10066,12 +10093,12 @@
       <c r="H36" t="s">
         <v>249</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>ពណ៌ទូកនេសាទ Color of fishing vessel</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>29</v>
       </c>
@@ -10096,12 +10123,12 @@
       <c r="H37" t="s">
         <v>253</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>សំបកទូកនេសាទ Hull material</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>31</v>
       </c>
@@ -10126,12 +10153,12 @@
       <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v>បណ្ដោយទូកនេសាទ (ម៉ែត្រ) Total Length (m)</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>33</v>
       </c>
@@ -10156,12 +10183,12 @@
       <c r="H39" t="s">
         <v>261</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="1"/>
         <v>បណ្ដោយឃុ្លប (ម៉ែត្រ) storage length​ (m)</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="s">
         <v>35</v>
       </c>
@@ -10186,12 +10213,12 @@
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>បណ្ដោយបន្ទប់បើកបរ (ម៉ែត្រ) length of cabin​ (m)</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>36</v>
       </c>
@@ -10216,12 +10243,12 @@
       <c r="H41" t="s">
         <v>269</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v>ទទឹងបន្ទប់បើកបរ wide of cabin</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>37</v>
       </c>
@@ -10246,12 +10273,12 @@
       <c r="H42" t="s">
         <v>273</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>កម្ពស់បន្ទប់បើកបរ high of cabin</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>38</v>
       </c>
@@ -10276,12 +10303,12 @@
       <c r="H43" t="s">
         <v>277</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v>ទទឹងទូកនេសាទ(ម៉ែត្រ) Breadth (m)</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
         <v>40</v>
       </c>
@@ -10306,12 +10333,12 @@
       <c r="H44" t="s">
         <v>281</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v>ទទឹងឃុ្លប(ម៉ែត្រ) wide storage (m)</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>42</v>
       </c>
@@ -10336,12 +10363,12 @@
       <c r="H45" t="s">
         <v>285</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v>ជម្រៅឃុ្លប(ម៉ែត្រ) Depth (m)</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>43</v>
       </c>
@@ -10366,12 +10393,12 @@
       <c r="H46" t="s">
         <v>289</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v>ជម្រៅទឹកមិនទាន់ផ្ទុក(ម៉ែត្រ) Empty load draft (m)</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>44</v>
       </c>
@@ -10396,12 +10423,12 @@
       <c r="H47" t="s">
         <v>293</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v>ជម្រៅទឹកផ្ទុកពេញ(ម៉ែត្រ) Full load draft (m)</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>45</v>
       </c>
@@ -10426,12 +10453,12 @@
       <c r="H48" t="s">
         <v>297</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v>ទម្ងន់ផ្ទុក (តោន) Dead weight (ton)</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>47</v>
       </c>
@@ -10456,12 +10483,12 @@
       <c r="H49" t="s">
         <v>301</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v>ចំនួនម៉ាស៊ីន Number of Engine</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>49</v>
       </c>
@@ -10486,15 +10513,15 @@
       <c r="H50" t="s">
         <v>305</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v>ទីតាំងម៉ាស៊ីន Engine location</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>50</v>
       </c>
@@ -10519,17 +10546,18 @@
       <c r="H51" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="9"/>
+      <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v>ម៉ាកម៉ាស៊ីន Engine brand</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" t="s">
         <v>648</v>
       </c>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>51</v>
       </c>
@@ -10554,15 +10582,16 @@
       <c r="H52" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="9"/>
+      <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v>ប្រភេទម៉ាស៊ីន Engine type</v>
       </c>
-      <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>52</v>
       </c>
@@ -10587,12 +10616,12 @@
       <c r="H53" t="s">
         <v>317</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="1"/>
         <v>កម្លាំងម៉ាស៊ីន Engine power (HP)</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>53</v>
       </c>
@@ -10617,12 +10646,12 @@
       <c r="H54" t="s">
         <v>321</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v>ថ្ងៃខែឆ្នាំផលិតម៉ាស៊ីន Construction date of engine</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>54</v>
       </c>
@@ -10647,12 +10676,12 @@
       <c r="H55" t="s">
         <v>325</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v>ប្រទេសផលិតម៉ាស៊ីន Construction country of engine</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>55</v>
       </c>
@@ -10663,8 +10692,9 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="46" t="s">
         <v>56</v>
       </c>
@@ -10675,8 +10705,9 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="46" t="s">
         <v>57</v>
       </c>
@@ -10687,8 +10718,9 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="46" t="s">
         <v>58</v>
       </c>
@@ -10699,8 +10731,9 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="46" t="s">
         <v>59</v>
       </c>
@@ -10711,8 +10744,9 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
         <v>60</v>
       </c>
@@ -10723,8 +10757,9 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>61</v>
       </c>
@@ -10735,8 +10770,9 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>62</v>
       </c>
@@ -10747,8 +10783,9 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>63</v>
       </c>
@@ -10759,8 +10796,9 @@
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="46" t="s">
         <v>64</v>
       </c>
@@ -10771,8 +10809,9 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="46" t="s">
         <v>65</v>
       </c>
@@ -10783,8 +10822,9 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
         <v>66</v>
       </c>
@@ -10795,8 +10835,9 @@
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="53" t="s">
         <v>67</v>
       </c>
@@ -10821,13 +10862,14 @@
       <c r="H68" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" ref="I68:I77" si="2">CONCATENATE(G68," ",H68)</f>
+      <c r="I68" s="18"/>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J77" si="2">CONCATENATE(G68," ",H68)</f>
         <v>ឈ្មោះអ្នកបើកបរទូកនេសាទ ខ្មែរ Fishing vessel’s master
 Khmer Name</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="54"/>
       <c r="B69" s="49" t="s">
         <v>329</v>
@@ -10850,13 +10892,14 @@
       <c r="H69" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="18"/>
+      <c r="J69" t="str">
         <f t="shared" si="2"/>
         <v>ឈ្មោះអ្នកបើកបរទូកនេសាទ English Fishing vessel’s master
 English Name</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="54"/>
       <c r="B70" s="49" t="s">
         <v>330</v>
@@ -10879,12 +10922,13 @@
       <c r="H70" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="16"/>
+      <c r="J70" t="str">
         <f t="shared" si="2"/>
         <v>អាយុ Master Age</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="54"/>
       <c r="B71" s="49" t="s">
         <v>332</v>
@@ -10907,12 +10951,13 @@
       <c r="H71" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="9"/>
+      <c r="J71" t="str">
         <f t="shared" si="2"/>
         <v>ភេទ Master Sex</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="54"/>
       <c r="B72" s="49" t="s">
         <v>334</v>
@@ -10935,12 +10980,13 @@
       <c r="H72" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="16"/>
+      <c r="J72" t="str">
         <f t="shared" si="2"/>
         <v>ខេត្តអ្នកបើកទូក Master Province</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="54"/>
       <c r="B73" s="49" t="s">
         <v>336</v>
@@ -10963,12 +11009,13 @@
       <c r="H73" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="16"/>
+      <c r="J73" t="str">
         <f t="shared" si="2"/>
         <v>ស្រុកអ្នកបើកទូក Master District</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="54"/>
       <c r="B74" s="49" t="s">
         <v>338</v>
@@ -10991,12 +11038,13 @@
       <c r="H74" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="16"/>
+      <c r="J74" t="str">
         <f t="shared" si="2"/>
         <v>ឃុំអ្នកបើកទូក Master Commune</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="54"/>
       <c r="B75" s="49" t="s">
         <v>340</v>
@@ -11019,12 +11067,13 @@
       <c r="H75" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="16"/>
+      <c r="J75" t="str">
         <f t="shared" si="2"/>
         <v>ភូមិអ្នកបើកទូក Master Village</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="54"/>
       <c r="B76" s="49"/>
       <c r="C76" s="36" t="s">
@@ -11043,12 +11092,13 @@
       <c r="H76" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="16"/>
+      <c r="J76" t="str">
         <f t="shared" si="2"/>
         <v>លេខកូដភូមិ Master village code (NCDD 8digits)</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="54"/>
       <c r="B77" s="49" t="s">
         <v>342</v>
@@ -11071,12 +11121,13 @@
       <c r="H77" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="16"/>
+      <c r="J77" t="str">
         <f t="shared" si="2"/>
         <v>សញ្ជាតិ Nationality</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="55"/>
       <c r="B78" s="49" t="s">
         <v>165</v>
@@ -11087,8 +11138,9 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="49" t="s">
         <v>13</v>
@@ -11099,8 +11151,9 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="46" t="s">
         <v>69</v>
       </c>
@@ -11125,12 +11178,12 @@
       <c r="H80" t="s">
         <v>346</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" ref="I80:I122" si="3">CONCATENATE(G80," ",H80)</f>
+      <c r="J80" t="str">
+        <f t="shared" ref="J80:J122" si="3">CONCATENATE(G80," ",H80)</f>
         <v>ចំនួនកម្មករ No. of crew</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="46" t="s">
         <v>70</v>
       </c>
@@ -11155,12 +11208,12 @@
       <c r="H81" t="s">
         <v>350</v>
       </c>
-      <c r="I81" t="str">
+      <c r="J81" t="str">
         <f t="shared" si="3"/>
         <v>មានលេខទូក Fishing vessel with No.</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="46" t="s">
         <v>72</v>
       </c>
@@ -11185,12 +11238,12 @@
       <c r="H82" t="s">
         <v>354</v>
       </c>
-      <c r="I82" t="str">
+      <c r="J82" t="str">
         <f t="shared" si="3"/>
         <v>ទូកទេលេខ Fishing vessel No.</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="46" t="s">
         <v>73</v>
       </c>
@@ -11215,12 +11268,12 @@
       <c r="H83" t="s">
         <v>356</v>
       </c>
-      <c r="I83" t="str">
+      <c r="J83" t="str">
         <f t="shared" si="3"/>
         <v>មានលិខិតអនុញ្ញាត Licensing</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="46" t="s">
         <v>75</v>
       </c>
@@ -11245,12 +11298,12 @@
       <c r="H84" t="s">
         <v>361</v>
       </c>
-      <c r="I84" t="str">
+      <c r="J84" t="str">
         <f t="shared" si="3"/>
         <v>លិខិតអនុញ្ញាតលេខ License No.</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="46" t="s">
         <v>77</v>
       </c>
@@ -11275,12 +11328,12 @@
       <c r="H85" t="s">
         <v>365</v>
       </c>
-      <c r="I85" t="str">
+      <c r="J85" t="str">
         <f t="shared" si="3"/>
         <v>ថ្ងៃខែឆ្នាំ ចេញលិខិតអនុញ្ញាត Issued date of license</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="46" t="s">
         <v>78</v>
       </c>
@@ -11305,12 +11358,12 @@
       <c r="H86" t="s">
         <v>369</v>
       </c>
-      <c r="I86" t="str">
+      <c r="J86" t="str">
         <f t="shared" si="3"/>
         <v>ថ្ងៃខែឆ្នាំ ផុតកំណត់ Expiry date</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="46" t="s">
         <v>79</v>
       </c>
@@ -11335,12 +11388,12 @@
       <c r="H87" t="s">
         <v>373</v>
       </c>
-      <c r="I87" t="str">
+      <c r="J87" t="str">
         <f t="shared" si="3"/>
         <v>ប្រភេទ និងទំហំឧបករណ៍នេសាទ Type of fishing gear and size</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="46" t="s">
         <v>81</v>
       </c>
@@ -11365,12 +11418,12 @@
       <c r="H88" t="s">
         <v>710</v>
       </c>
-      <c r="I88" t="str">
+      <c r="J88" t="str">
         <f t="shared" si="3"/>
         <v>ប្រភេទ និងទំហំឧបករណ៍នេសាទ 1 Fishing gear type 1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="46" t="s">
         <v>82</v>
       </c>
@@ -11395,12 +11448,12 @@
       <c r="H89" t="s">
         <v>702</v>
       </c>
-      <c r="I89" t="str">
+      <c r="J89" t="str">
         <f t="shared" si="3"/>
         <v>បណ្ដោយ ឧបករណ៍នេសាទ 1 Length 1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="46" t="s">
         <v>83</v>
       </c>
@@ -11425,12 +11478,12 @@
       <c r="H90" t="s">
         <v>704</v>
       </c>
-      <c r="I90" t="str">
+      <c r="J90" t="str">
         <f t="shared" si="3"/>
         <v>ទទឹង ឧបករណ៍នេសាទ 1 Wide 1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>84</v>
       </c>
@@ -11455,12 +11508,12 @@
       <c r="H91" t="s">
         <v>706</v>
       </c>
-      <c r="I91" t="str">
+      <c r="J91" t="str">
         <f t="shared" si="3"/>
         <v>កម្ពស់ ឧបករណ៍នេសាទ 1 High 1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="46" t="s">
         <v>85</v>
       </c>
@@ -11485,12 +11538,12 @@
       <c r="H92" t="s">
         <v>708</v>
       </c>
-      <c r="I92" t="str">
+      <c r="J92" t="str">
         <f t="shared" si="3"/>
         <v>ទំហំ ឧបករណ៍នេសាទ 1 Size 1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="46" t="s">
         <v>86</v>
       </c>
@@ -11515,12 +11568,12 @@
       <c r="H93" t="s">
         <v>732</v>
       </c>
-      <c r="I93" t="str">
+      <c r="J93" t="str">
         <f t="shared" si="3"/>
         <v>ខែចាប់ផ្ដើមនេសាទ 1 Start month (Select 12 Month) 1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="46" t="s">
         <v>87</v>
       </c>
@@ -11545,12 +11598,12 @@
       <c r="H94" t="s">
         <v>718</v>
       </c>
-      <c r="I94" t="str">
+      <c r="J94" t="str">
         <f t="shared" si="3"/>
         <v>ខែបញ្ចប់នេសាទ 1 Fishing end month (Select 12 Month) 1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>88</v>
       </c>
@@ -11575,12 +11628,12 @@
       <c r="H95" t="s">
         <v>719</v>
       </c>
-      <c r="I95" t="str">
+      <c r="J95" t="str">
         <f t="shared" si="3"/>
         <v>ខែចាប់សំរាកពីការធ្វើនេសាទ 1 None fishing start month (Select 12 Month) 1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
         <v>89</v>
       </c>
@@ -11605,12 +11658,12 @@
       <c r="H96" t="s">
         <v>720</v>
       </c>
-      <c r="I96" t="str">
+      <c r="J96" t="str">
         <f t="shared" si="3"/>
         <v>ខែបញ្ចប់សំរាកពីការធ្វើនេសាទ 1 None fishing end month (Select 12 Month) 1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>90</v>
       </c>
@@ -11635,12 +11688,12 @@
       <c r="H97" t="s">
         <v>721</v>
       </c>
-      <c r="I97" t="str">
+      <c r="J97" t="str">
         <f t="shared" si="3"/>
         <v>ចំនួនេជើងេចញេធ្វើនេសាទ/ខែ 1 Number of trips/month (Select 12 Month) 1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="46" t="s">
         <v>91</v>
       </c>
@@ -11665,12 +11718,12 @@
       <c r="H98" t="s">
         <v>717</v>
       </c>
-      <c r="I98" t="str">
+      <c r="J98" t="str">
         <f t="shared" si="3"/>
         <v>ទីតាំងនេសាទ 1 Fishing zone 1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
         <v>92</v>
       </c>
@@ -11695,12 +11748,13 @@
       <c r="H99" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="21"/>
+      <c r="J99" t="str">
         <f t="shared" si="3"/>
         <v>ប្រភេទ និងទំហំឧបករណ៍នេសាទ 2 Fishing gear type 2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="46" t="s">
         <v>93</v>
       </c>
@@ -11725,12 +11779,13 @@
       <c r="H100" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="21"/>
+      <c r="J100" t="str">
         <f t="shared" si="3"/>
         <v>បណ្ដោយ ឧបករណ៍នេសាទ 2 Length 2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>94</v>
       </c>
@@ -11755,12 +11810,13 @@
       <c r="H101" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="21"/>
+      <c r="J101" t="str">
         <f t="shared" si="3"/>
         <v>ទទឹង ឧបករណ៍នេសាទ 2 Wide 2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="46" t="s">
         <v>95</v>
       </c>
@@ -11785,12 +11841,13 @@
       <c r="H102" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="21"/>
+      <c r="J102" t="str">
         <f t="shared" si="3"/>
         <v>កម្ពស់ ឧបករណ៍នេសាទ 2 High 2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>96</v>
       </c>
@@ -11815,12 +11872,13 @@
       <c r="H103" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="I103" t="str">
+      <c r="I103" s="21"/>
+      <c r="J103" t="str">
         <f t="shared" si="3"/>
         <v>ទំហំ ឧបករណ៍នេសាទ 2 Size 2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="46" t="s">
         <v>97</v>
       </c>
@@ -11845,12 +11903,13 @@
       <c r="H104" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="21"/>
+      <c r="J104" t="str">
         <f t="shared" si="3"/>
         <v>ខែចាប់ផ្ដើមនេសាទ 2 Start month (Select 12 Month) 2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>98</v>
       </c>
@@ -11875,12 +11934,13 @@
       <c r="H105" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="21"/>
+      <c r="J105" t="str">
         <f t="shared" si="3"/>
         <v>ខែបញ្ចប់នេសាទ 2 Fishing end month (Select 12 Month) 2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="46" t="s">
         <v>99</v>
       </c>
@@ -11891,12 +11951,13 @@
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" t="str">
+      <c r="I106" s="12"/>
+      <c r="J106" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="46" t="s">
         <v>100</v>
       </c>
@@ -11907,12 +11968,13 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" t="str">
+      <c r="I107" s="12"/>
+      <c r="J107" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="46" t="s">
         <v>101</v>
       </c>
@@ -11937,12 +11999,13 @@
       <c r="H108" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="21"/>
+      <c r="J108" t="str">
         <f t="shared" si="3"/>
         <v>ចំនួនេជើងេចញេធ្វើនេសាទ/ខែ 2 Number of trips/month (Select 12 Month) 2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="46" t="s">
         <v>102</v>
       </c>
@@ -11967,12 +12030,13 @@
       <c r="H109" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="21"/>
+      <c r="J109" t="str">
         <f t="shared" si="3"/>
         <v>ទីតាំងនេសាទ 2 Fishing zone 2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="46" t="s">
         <v>103</v>
       </c>
@@ -11997,13 +12061,14 @@
       <c r="H110" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="I110" s="9" t="str">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ប្រភេទ និងទំហំឧបករណ៍នេសាទ 3 Fishing gear type 3</v>
       </c>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
         <v>104</v>
       </c>
@@ -12028,13 +12093,14 @@
       <c r="H111" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="I111" s="9" t="str">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>បណ្ដោយ ឧបករណ៍នេសាទ 3 Length 3</v>
       </c>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="46" t="s">
         <v>105</v>
       </c>
@@ -12059,13 +12125,14 @@
       <c r="H112" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="I112" s="9" t="str">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ទទឹង ឧបករណ៍នេសាទ 3 Wide 3</v>
       </c>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="46" t="s">
         <v>106</v>
       </c>
@@ -12090,13 +12157,14 @@
       <c r="H113" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="I113" s="9" t="str">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>កម្ពស់ ឧបករណ៍នេសាទ 3 High 3</v>
       </c>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
         <v>107</v>
       </c>
@@ -12121,13 +12189,14 @@
       <c r="H114" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="I114" s="9" t="str">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ទំហំ ឧបករណ៍នេសាទ 3 Size 3</v>
       </c>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
         <v>108</v>
       </c>
@@ -12152,13 +12221,14 @@
       <c r="H115" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="I115" s="9" t="str">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ខែចាប់ផ្ដើមនេសាទ 3 Start month (Select 12 Month) 3</v>
       </c>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
         <v>109</v>
       </c>
@@ -12183,13 +12253,14 @@
       <c r="H116" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="I116" s="9" t="str">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ខែបញ្ចប់នេសាទ 3 Fishing end month (Select 12 Month) 3</v>
       </c>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="46" t="s">
         <v>110</v>
       </c>
@@ -12200,13 +12271,14 @@
       <c r="F117" s="64"/>
       <c r="G117" s="64"/>
       <c r="H117" s="64"/>
-      <c r="I117" s="9" t="str">
+      <c r="I117" s="64"/>
+      <c r="J117" s="9" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
         <v>111</v>
       </c>
@@ -12217,13 +12289,14 @@
       <c r="F118" s="64"/>
       <c r="G118" s="64"/>
       <c r="H118" s="64"/>
-      <c r="I118" s="9" t="str">
+      <c r="I118" s="64"/>
+      <c r="J118" s="9" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J118" s="9"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="46" t="s">
         <v>112</v>
       </c>
@@ -12246,13 +12319,14 @@
       <c r="H119" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="I119" s="9" t="str">
+      <c r="I119" s="9"/>
+      <c r="J119" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ចំនួនេជើងេចញេធ្វើនេសាទ/ខែ 3 Number of trips/month (Select 12 Month) 3</v>
       </c>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="46" t="s">
         <v>113</v>
       </c>
@@ -12275,13 +12349,14 @@
       <c r="H120" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="I120" s="9" t="str">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ទីតាំងនេសាទ 3 Fishing zone 3</v>
       </c>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" s="9"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="46" t="s">
         <v>114</v>
       </c>
@@ -12304,12 +12379,13 @@
       <c r="H121" s="21" t="s">
         <v>803</v>
       </c>
-      <c r="I121" s="9" t="str">
+      <c r="I121" s="21"/>
+      <c r="J121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>កន្លែងឡើងត្រី Landing site</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="46" t="s">
         <v>116</v>
       </c>
@@ -12332,12 +12408,13 @@
       <c r="H122" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="I122" s="9" t="str">
+      <c r="I122" s="21"/>
+      <c r="J122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ចំណតទូក Home Landing</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="46" t="s">
         <v>117</v>
       </c>
@@ -12360,12 +12437,12 @@
       <c r="H123" t="s">
         <v>449</v>
       </c>
-      <c r="I123" s="9" t="str">
+      <c r="J123" s="9" t="str">
         <f>CONCATENATE(E123,". ",G123," ",H123)</f>
         <v>q8_10. សៀវភៅកត់ត្រាស្ថិតិ Fishing logbook</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="46" t="s">
         <v>119</v>
       </c>
@@ -12388,12 +12465,12 @@
       <c r="H124" t="s">
         <v>452</v>
       </c>
-      <c r="I124" s="9" t="str">
-        <f t="shared" ref="I124:I166" si="4">CONCATENATE(E124,". ",G124," ",H124)</f>
+      <c r="J124" s="9" t="str">
+        <f t="shared" ref="J124:J166" si="4">CONCATENATE(E124,". ",G124," ",H124)</f>
         <v>q8_11. សៀវភៅកត់ត្រាស្ថិតិចេញដោយជលផល Fishing logbook issued by FiAC</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="46" t="s">
         <v>121</v>
       </c>
@@ -12416,12 +12493,12 @@
       <c r="H125" t="s">
         <v>455</v>
       </c>
-      <c r="I125" s="9" t="str">
+      <c r="J125" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q8_12. ថ្ងៃខែចេញសៀវភៅកត់ត្រាស្ថិតិ Issued date of logbook</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="46" t="s">
         <v>122</v>
       </c>
@@ -12444,12 +12521,12 @@
       <c r="H126" t="s">
         <v>458</v>
       </c>
-      <c r="I126" s="9" t="str">
+      <c r="J126" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q8_13. ថ្ងៃខែផុតកំណត់ សៀវភៅកត់ត្រាស្ថិតិ Expiry date of logbook</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="46" t="s">
         <v>124</v>
       </c>
@@ -12472,12 +12549,12 @@
       <c r="H127" t="s">
         <v>461</v>
       </c>
-      <c r="I127" s="9" t="str">
+      <c r="J127" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9. ប្រព័ន្ធអេឡិចត្រូនិច Electronics equipment</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="46" t="s">
         <v>125</v>
       </c>
@@ -12500,12 +12577,12 @@
       <c r="H128" t="s">
         <v>464</v>
       </c>
-      <c r="I128" s="9" t="str">
+      <c r="J128" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_1. ឧបករណ៌កំណត់ទីតាំង with Navigation equipment</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="46" t="s">
         <v>126</v>
       </c>
@@ -12528,12 +12605,12 @@
       <c r="H129" t="s">
         <v>467</v>
       </c>
-      <c r="I129" s="9" t="str">
+      <c r="J129" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_1_1. ឧបករណ៌កំណត់ទីតាំង ១ Navigation equipment</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="46" t="s">
         <v>127</v>
       </c>
@@ -12556,12 +12633,12 @@
       <c r="H130" t="s">
         <v>623</v>
       </c>
-      <c r="I130" s="9" t="str">
+      <c r="J130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_1_2. ឆ្នាំទិញ ១ Purchase year</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="46" t="s">
         <v>128</v>
       </c>
@@ -12584,12 +12661,13 @@
       <c r="H131" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="I131" s="9" t="str">
+      <c r="I131" s="43"/>
+      <c r="J131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_1_3. ឧបករណ៌កំណត់ទីតាំង ២ Navigation equipment</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="46" t="s">
         <v>129</v>
       </c>
@@ -12612,12 +12690,12 @@
       <c r="H132" t="s">
         <v>623</v>
       </c>
-      <c r="I132" s="9" t="str">
+      <c r="J132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_1_4. ឆ្នាំទិញ ២ Purchase year</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="46" t="s">
         <v>130</v>
       </c>
@@ -12640,12 +12718,12 @@
       <c r="H133" t="s">
         <v>476</v>
       </c>
-      <c r="I133" s="9" t="str">
+      <c r="J133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_2. ឧបករណ៌ទំនាក់ទំនង Communication equipment</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="46" t="s">
         <v>131</v>
       </c>
@@ -12668,12 +12746,12 @@
       <c r="H134" t="s">
         <v>479</v>
       </c>
-      <c r="I134" s="9" t="str">
+      <c r="J134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_2_1. ឧបករណ៌ទំនាក់ទំនង ១ Communication equipment1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="46" t="s">
         <v>132</v>
       </c>
@@ -12696,12 +12774,12 @@
       <c r="H135" t="s">
         <v>776</v>
       </c>
-      <c r="I135" s="9" t="str">
+      <c r="J135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_2_2. ឆ្នាំទិញ ១ Purchase year​1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>133</v>
       </c>
@@ -12724,12 +12802,12 @@
       <c r="H136" t="s">
         <v>777</v>
       </c>
-      <c r="I136" s="9" t="str">
+      <c r="J136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_2_3. ឧបករណ៌ទំនាក់ទំនង ២ Communication equipment​2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="46" t="s">
         <v>134</v>
       </c>
@@ -12752,12 +12830,12 @@
       <c r="H137" t="s">
         <v>778</v>
       </c>
-      <c r="I137" s="9" t="str">
+      <c r="J137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_2_4. ឆ្នាំទិញ ២ Purchase year​2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="46" t="s">
         <v>135</v>
       </c>
@@ -12780,12 +12858,12 @@
       <c r="H138" t="s">
         <v>488</v>
       </c>
-      <c r="I138" s="9" t="str">
+      <c r="J138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_3. ឧបករណ៌មើលត្រី (អេកូសោនដ៍រ) Fish finder equipment</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="46" t="s">
         <v>136</v>
       </c>
@@ -12808,12 +12886,12 @@
       <c r="H139" t="s">
         <v>782</v>
       </c>
-      <c r="I139" s="9" t="str">
+      <c r="J139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_3_1. ឧបករណ៌មើលត្រី (អេកូសោនដ៍រ)​១ Fish finder equipment​1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="46" t="s">
         <v>137</v>
       </c>
@@ -12836,12 +12914,12 @@
       <c r="H140" t="s">
         <v>776</v>
       </c>
-      <c r="I140" s="9" t="str">
+      <c r="J140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_3_2. ឆ្នាំទិញ​១ Purchase year​1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="46" t="s">
         <v>138</v>
       </c>
@@ -12864,12 +12942,12 @@
       <c r="H141" t="s">
         <v>783</v>
       </c>
-      <c r="I141" s="9" t="str">
+      <c r="J141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_3_3. ឧបករណ៌មើលត្រី (អេកូសោនដ៍រ)២ Fish finder equipment2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="46" t="s">
         <v>139</v>
       </c>
@@ -12892,12 +12970,12 @@
       <c r="H142" t="s">
         <v>778</v>
       </c>
-      <c r="I142" s="9" t="str">
+      <c r="J142" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_3_4. ឆ្នាំទិញ២ Purchase year​2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="46" t="s">
         <v>140</v>
       </c>
@@ -12920,12 +12998,12 @@
       <c r="H143" t="s">
         <v>499</v>
       </c>
-      <c r="I143" s="9" t="str">
+      <c r="J143" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_4. ឧបករណ៌សុវត្ថិភាព Safety equipment</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="46" t="s">
         <v>141</v>
       </c>
@@ -12948,12 +13026,12 @@
       <c r="H144" t="s">
         <v>788</v>
       </c>
-      <c r="I144" s="9" t="str">
+      <c r="J144" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_4_1. ឧបករណ៌សុវត្ថិភាព១ Safety equipment1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="46" t="s">
         <v>142</v>
       </c>
@@ -12976,12 +13054,12 @@
       <c r="H145" t="s">
         <v>776</v>
       </c>
-      <c r="I145" s="9" t="str">
+      <c r="J145" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_4_2. ឆ្នាំទិញ១ Purchase year​1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="46" t="s">
         <v>143</v>
       </c>
@@ -13004,12 +13082,12 @@
       <c r="H146" t="s">
         <v>789</v>
       </c>
-      <c r="I146" s="9" t="str">
+      <c r="J146" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_4_3. ឧបករណ៌សុវត្ថិភាព២ Safety equipment2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="46" t="s">
         <v>144</v>
       </c>
@@ -13032,12 +13110,12 @@
       <c r="H147" t="s">
         <v>778</v>
       </c>
-      <c r="I147" s="9" t="str">
+      <c r="J147" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q9_4_4. ឆ្នាំទិញ២ Purchase year​2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="46" t="s">
         <v>145</v>
       </c>
@@ -13060,12 +13138,12 @@
       <c r="H148" t="s">
         <v>508</v>
       </c>
-      <c r="I148" s="9" t="str">
+      <c r="J148" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q10. ការថែរក្សានេសាទ Preservation</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="46" t="s">
         <v>146</v>
       </c>
@@ -13088,12 +13166,12 @@
       <c r="H149" t="s">
         <v>512</v>
       </c>
-      <c r="I149" s="9" t="str">
+      <c r="J149" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q10_1. ករែថរក្សាផលនេសាទ Type Preservation1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="46" t="s">
         <v>147</v>
       </c>
@@ -13116,12 +13194,12 @@
       <c r="H150" t="s">
         <v>516</v>
       </c>
-      <c r="I150" s="9" t="str">
+      <c r="J150" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q10_2. ចំណុះផ្ទុក ១ម៣ Hold Capacity1.m3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="46" t="s">
         <v>148</v>
       </c>
@@ -13144,12 +13222,12 @@
       <c r="H151" t="s">
         <v>520</v>
       </c>
-      <c r="I151" s="9" t="str">
+      <c r="J151" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q10_3. ករែថរក្សាផលនេសាទ Type Preservation2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="46" t="s">
         <v>149</v>
       </c>
@@ -13172,12 +13250,12 @@
       <c r="H152" t="s">
         <v>523</v>
       </c>
-      <c r="I152" s="9" t="str">
+      <c r="J152" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q10_4. ចំណុះផ្ទុក ១ម៣ Hold Capacity2.m3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="57" t="s">
         <v>150</v>
       </c>
@@ -13200,12 +13278,13 @@
       <c r="H153" s="24" t="s">
         <v>793</v>
       </c>
-      <c r="I153" s="9" t="str">
+      <c r="I153" s="24"/>
+      <c r="J153" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_1. ឈ្មោះកំពុងផែ (រដូវទី១) Port name period 1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="58"/>
       <c r="B154" s="49" t="s">
         <v>526</v>
@@ -13226,12 +13305,13 @@
       <c r="H154" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="I154" s="9" t="str">
+      <c r="I154" s="24"/>
+      <c r="J154" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_1start. ខែចាប់ផ្ដើម (រដូវទី១) Month start (Select 12 Month)</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="58"/>
       <c r="B155" s="49" t="s">
         <v>528</v>
@@ -13252,12 +13332,13 @@
       <c r="H155" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="I155" s="9" t="str">
+      <c r="I155" s="24"/>
+      <c r="J155" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_1end. ខែបញ្ចប់​ (រដូវទី១) Month End (Select 12 Month)</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="59" t="s">
         <v>151</v>
       </c>
@@ -13280,12 +13361,13 @@
       <c r="H156" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="I156" s="9" t="str">
+      <c r="I156" s="26"/>
+      <c r="J156" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_2. ឈ្មោះកំពុងផែ (រដូវទី២) Port name period 2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="60"/>
       <c r="B157" s="49" t="s">
         <v>532</v>
@@ -13306,12 +13388,13 @@
       <c r="H157" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="I157" s="9" t="str">
+      <c r="I157" s="26"/>
+      <c r="J157" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_2start. ខែចាប់ផ្ដើម (រដូវទី២) Month start (Select 12 Month)</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="60"/>
       <c r="B158" s="49" t="s">
         <v>534</v>
@@ -13332,12 +13415,13 @@
       <c r="H158" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="I158" s="9" t="str">
+      <c r="I158" s="26"/>
+      <c r="J158" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q11_2end. ខែបញ្ចប់​ (រដូវទី២) Month End (Select 12 Month)</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="46" t="s">
         <v>152</v>
       </c>
@@ -13357,12 +13441,13 @@
       <c r="H159" s="49" t="s">
         <v>626</v>
       </c>
-      <c r="I159" s="9" t="str">
+      <c r="I159" s="49"/>
+      <c r="J159" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q12.  Vessel card</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="46" t="s">
         <v>154</v>
       </c>
@@ -13382,12 +13467,13 @@
       <c r="H160" s="49" t="s">
         <v>627</v>
       </c>
-      <c r="I160" s="9" t="str">
+      <c r="I160" s="49"/>
+      <c r="J160" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q13.  Application form for fishing gear</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="46" t="s">
         <v>156</v>
       </c>
@@ -13407,12 +13493,13 @@
       <c r="H161" s="49" t="s">
         <v>628</v>
       </c>
-      <c r="I161" s="9" t="str">
+      <c r="I161" s="49"/>
+      <c r="J161" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q14.  Application form for fishing boat</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="46" t="s">
         <v>157</v>
       </c>
@@ -13432,12 +13519,13 @@
       <c r="H162" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="I162" s="9" t="str">
+      <c r="I162" s="49"/>
+      <c r="J162" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q15.  Inspection form</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="46" t="s">
         <v>159</v>
       </c>
@@ -13457,12 +13545,13 @@
       <c r="H163" s="49" t="s">
         <v>630</v>
       </c>
-      <c r="I163" s="9" t="str">
+      <c r="I163" s="49"/>
+      <c r="J163" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q16.  Reciept for licensed fee</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="46" t="s">
         <v>160</v>
       </c>
@@ -13482,12 +13571,13 @@
       <c r="H164" s="49" t="s">
         <v>631</v>
       </c>
-      <c r="I164" s="9" t="str">
+      <c r="I164" s="49"/>
+      <c r="J164" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q17.  Rishing vessel license</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="46" t="s">
         <v>161</v>
       </c>
@@ -13507,12 +13597,13 @@
       <c r="H165" s="49" t="s">
         <v>632</v>
       </c>
-      <c r="I165" s="9" t="str">
+      <c r="I165" s="49"/>
+      <c r="J165" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q18.  Fishing gear license</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="46" t="s">
         <v>162</v>
       </c>
@@ -13532,12 +13623,13 @@
       <c r="H166" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="I166" s="9" t="str">
+      <c r="I166" s="49"/>
+      <c r="J166" s="9" t="str">
         <f t="shared" si="4"/>
         <v>q19.  others</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="46" t="s">
         <v>163</v>
       </c>
@@ -13548,9 +13640,10 @@
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
-      <c r="I167" s="9"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="12"/>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="46" t="s">
         <v>164</v>
       </c>
@@ -13561,9 +13654,10 @@
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
-      <c r="I168" s="9"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="12"/>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="46" t="s">
         <v>165</v>
       </c>
@@ -13574,9 +13668,10 @@
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="9"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="12"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="46" t="s">
         <v>166</v>
       </c>
@@ -13587,9 +13682,10 @@
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="9"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="12"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="46" t="s">
         <v>167</v>
       </c>
@@ -13600,9 +13696,10 @@
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="9"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="12"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="46" t="s">
         <v>168</v>
       </c>
@@ -13610,9 +13707,9 @@
         <v>168</v>
       </c>
       <c r="C172" s="7"/>
-      <c r="I172" s="9"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="9"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
         <v>170</v>
       </c>
@@ -13620,9 +13717,9 @@
         <v>170</v>
       </c>
       <c r="C173" s="7"/>
-      <c r="I173" s="9"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="9"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="46" t="s">
         <v>172</v>
       </c>
@@ -13633,9 +13730,10 @@
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
-      <c r="I174" s="9"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="12"/>
+      <c r="J174" s="9"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
         <v>173</v>
       </c>
@@ -13646,9 +13744,10 @@
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
-      <c r="I175" s="9"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="12"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="46" t="s">
         <v>174</v>
       </c>
@@ -13659,9 +13758,10 @@
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
-      <c r="I176" s="9"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="12"/>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="46" t="s">
         <v>175</v>
       </c>
@@ -13672,9 +13772,10 @@
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
-      <c r="I177" s="9"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="12"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="46" t="s">
         <v>176</v>
       </c>
@@ -13682,9 +13783,9 @@
         <v>176</v>
       </c>
       <c r="C178" s="7"/>
-      <c r="I178" s="9"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="46" t="s">
         <v>177</v>
       </c>
@@ -13695,9 +13796,10 @@
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
-      <c r="I179" s="9"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="12"/>
+      <c r="J179" s="9"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="46" t="s">
         <v>178</v>
       </c>
@@ -13708,9 +13810,10 @@
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
-      <c r="I180" s="9"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="12"/>
+      <c r="J180" s="9"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="46" t="s">
         <v>179</v>
       </c>
@@ -13721,9 +13824,10 @@
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
-      <c r="I181" s="9"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I181" s="12"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="46" t="s">
         <v>180</v>
       </c>
@@ -13734,9 +13838,10 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
-      <c r="I182" s="9"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I182" s="12"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="46" t="s">
         <v>181</v>
       </c>
@@ -13747,9 +13852,10 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
-      <c r="I183" s="9"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="12"/>
+      <c r="J183" s="9"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="46" t="s">
         <v>183</v>
       </c>
@@ -13760,7 +13866,8 @@
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
-      <c r="I184" s="9"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16">
